--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Plg-F2r.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.153886666666666</v>
+        <v>13.83830466666667</v>
       </c>
       <c r="N2">
-        <v>18.46166</v>
+        <v>41.514914</v>
       </c>
       <c r="O2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="P2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="Q2">
-        <v>0.08695031600888888</v>
+        <v>0.1955260194035556</v>
       </c>
       <c r="R2">
-        <v>0.7825528440799999</v>
+        <v>1.759734174632</v>
       </c>
       <c r="S2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
       <c r="T2">
-        <v>0.0807741722649671</v>
+        <v>0.1568893148900199</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>145.797898</v>
       </c>
       <c r="O3">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="P3">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="Q3">
-        <v>0.6866757000471111</v>
+        <v>0.6866757000471112</v>
       </c>
       <c r="R3">
-        <v>6.180081300423999</v>
+        <v>6.180081300424001</v>
       </c>
       <c r="S3">
-        <v>0.637900629137472</v>
+        <v>0.5509859018285573</v>
       </c>
       <c r="T3">
-        <v>0.6379006291374719</v>
+        <v>0.5509859018285573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.43313066666667</v>
+        <v>25.766648</v>
       </c>
       <c r="N4">
-        <v>64.299392</v>
+        <v>77.299944</v>
       </c>
       <c r="O4">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="P4">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="Q4">
-        <v>0.3028358475662222</v>
+        <v>0.3640655584746667</v>
       </c>
       <c r="R4">
-        <v>2.725522628096</v>
+        <v>3.276590026272</v>
       </c>
       <c r="S4">
-        <v>0.281325198597561</v>
+        <v>0.2921247832814228</v>
       </c>
       <c r="T4">
-        <v>0.2813251985975609</v>
+        <v>0.2921247832814228</v>
       </c>
     </row>
   </sheetData>
